--- a/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Management_Executive_Summary.xlsx
@@ -137,7 +137,7 @@
     <t>As of date:Sep,2021</t>
   </si>
   <si>
-    <t>Printed on:2021-11-02 16:55</t>
+    <t>Printed on:2022-01-06 05:20</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -351,7 +351,7 @@
     <t>Bank*(Sep21)</t>
   </si>
   <si>
-    <t>Peer Group*(Dec18)</t>
+    <t>Peer Group*(Sep21)</t>
   </si>
   <si>
     <t>Return on Average Assets</t>
@@ -399,7 +399,7 @@
     <t>Liquidity Ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">Peer Group*: FFIEC [103M], Mutually-owned insured savings banks having assets between $100 million and $300 million, it has 97 banks, 97 banks have data  as of 12/31/2018.</t>
+    <t xml:space="preserve">Peer Group*: FFIEC [103M], Mutually-owned insured savings banks having assets between $100 million and $300 million, it has 90 banks, 87 banks have data  as of 09/30/2021.</t>
   </si>
   <si>
     <t>Equity to Assets</t>
@@ -2507,12 +2507,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$C$2:$C$9</c:f>
+              <c:f>'Sheet4'!$C$2:$C$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2530,12 +2530,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$D$2:$D$9</c:f>
+              <c:f>'Sheet4'!$D$2:$D$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2553,12 +2553,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$E$2:$E$9</c:f>
+              <c:f>'Sheet4'!$E$2:$E$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2576,12 +2576,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$F$2:$F$9</c:f>
+              <c:f>'Sheet4'!$F$2:$F$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2599,12 +2599,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$G$2:$G$9</c:f>
+              <c:f>'Sheet4'!$G$2:$G$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2622,12 +2622,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$H$2:$H$9</c:f>
+              <c:f>'Sheet4'!$H$2:$H$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2645,12 +2645,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$I$2:$I$9</c:f>
+              <c:f>'Sheet4'!$I$2:$I$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2668,12 +2668,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$J$2:$J$9</c:f>
+              <c:f>'Sheet4'!$J$2:$J$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2691,12 +2691,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$K$2:$K$9</c:f>
+              <c:f>'Sheet4'!$K$2:$K$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2714,12 +2714,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$L$2:$L$9</c:f>
+              <c:f>'Sheet4'!$L$2:$L$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2737,12 +2737,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$M$2:$M$9</c:f>
+              <c:f>'Sheet4'!$M$2:$M$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2760,12 +2760,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$N$2:$N$9</c:f>
+              <c:f>'Sheet4'!$N$2:$N$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2783,12 +2783,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$O$2:$O$9</c:f>
+              <c:f>'Sheet4'!$O$2:$O$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2806,12 +2806,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$P$2:$P$9</c:f>
+              <c:f>'Sheet4'!$P$2:$P$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2829,12 +2829,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$Q$2:$Q$9</c:f>
+              <c:f>'Sheet4'!$Q$2:$Q$8</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -2870,12 +2870,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet4'!$A$2:$A$9</c:f>
+              <c:f>'Sheet4'!$A$2:$A$8</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet4'!$B$2:$B$9</c:f>
+              <c:f>'Sheet4'!$B$2:$B$8</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3048,12 +3048,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet5'!$A$2:$A$8</c:f>
+              <c:f>'Sheet5'!$A$2:$A$7</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet5'!$B$2:$B$8</c:f>
+              <c:f>'Sheet5'!$B$2:$B$7</c:f>
             </c:numRef>
           </c:val>
           <c:spPr>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="68">
-        <v>0.0055</v>
+        <v>0.00504466618427191</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="O25" s="47"/>
       <c r="P25" s="67">
-        <v>0.00564654599999999</v>
+        <v>0.0485255213917326</v>
       </c>
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="68">
-        <v>0.0363463894720236</v>
+        <v>0.0391994232473968</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -9452,7 +9452,7 @@
       </c>
       <c r="O26" s="47"/>
       <c r="P26" s="67">
-        <v>0.0031593996</v>
+        <v>0.0517767959263469</v>
       </c>
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="69">
-        <v>0.0333</v>
+        <v>0.0274370486588529</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="52"/>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="O27" s="47"/>
       <c r="P27" s="67">
-        <v>0.00480099239999999</v>
+        <v>0.0454033640318483</v>
       </c>
       <c r="Q27" s="47"/>
       <c r="R27" s="47"/>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="G28" s="49"/>
       <c r="H28" s="69">
-        <v>0.0402</v>
+        <v>0.0326721590199569</v>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="52"/>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="O28" s="47"/>
       <c r="P28" s="67">
-        <v>0.124393062</v>
+        <v>0.0518765787107364</v>
       </c>
       <c r="Q28" s="47"/>
       <c r="R28" s="47"/>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="G29" s="49"/>
       <c r="H29" s="69">
-        <v>0.0463</v>
+        <v>0.0447837635674872</v>
       </c>
       <c r="I29" s="51"/>
       <c r="J29" s="52"/>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="O29" s="47"/>
       <c r="P29" s="67">
-        <v>0.138</v>
+        <v>0.197582260060664</v>
       </c>
       <c r="Q29" s="47"/>
       <c r="R29" s="47"/>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="68">
-        <v>0.025</v>
+        <v>0.0158868140464749</v>
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="68">
-        <v>0.00765896870304462</v>
+        <v>0.00569300137711723</v>
       </c>
       <c r="I31" s="48"/>
       <c r="J31" s="48"/>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="G32" s="49"/>
       <c r="H32" s="68">
-        <v>0.7849</v>
+        <v>0.816212282706521</v>
       </c>
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="G33" s="49"/>
       <c r="H33" s="69">
-        <v>0.0974456479602755</v>
+        <v>0.19026757567857</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="52"/>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="G34" s="49"/>
       <c r="H34" s="69">
-        <v>0.151321770329717</v>
+        <v>0.144032785392803</v>
       </c>
       <c r="I34" s="51"/>
       <c r="J34" s="52"/>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="G35" s="49"/>
       <c r="H35" s="69">
-        <v>0.690899999999999</v>
+        <v>0.60137410565099</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="52"/>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="G36" s="49"/>
       <c r="H36" s="69">
-        <v>4.56576736113111</v>
+        <v>4.89256025544195</v>
       </c>
       <c r="I36" s="51"/>
       <c r="J36" s="52"/>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="69">
-        <v>0.820546318289788</v>
+        <v>0.709914597532498</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="52"/>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="G38" s="49"/>
       <c r="H38" s="69">
-        <v>0.0463526780166522</v>
+        <v>0.0351284434675372</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="52"/>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="69">
-        <v>0.0303987984675106</v>
+        <v>0.0031567131401631</v>
       </c>
       <c r="I39" s="51"/>
       <c r="J39" s="52"/>
@@ -9912,16 +9912,16 @@
         <v>0.131366633927319</v>
       </c>
       <c r="O46" s="72">
-        <v>0.0244931446625337</v>
+        <v>0.0244931540881158</v>
       </c>
       <c r="P46" s="72">
-        <v>0.0208565358675742</v>
+        <v>0.0208565959163011</v>
       </c>
       <c r="Q46" s="72">
-        <v>0.0167109752351749</v>
+        <v>0.0167110580720087</v>
       </c>
       <c r="R46" s="72">
-        <v>0.0138156270600913</v>
+        <v>0.0138157130160154</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="72">
-        <v>-1.28188332891243E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" ht="16.5" customHeight="1">
@@ -10212,19 +10212,19 @@
         <v>32253</v>
       </c>
       <c r="F55" s="71">
-        <v>32390.1815756869</v>
+        <v>32390.1815079252</v>
       </c>
       <c r="G55" s="71">
-        <v>32788.1296766315</v>
+        <v>32788.1296186848</v>
       </c>
       <c r="H55" s="71">
-        <v>33164.9142528775</v>
+        <v>33164.9147041557</v>
       </c>
       <c r="I55" s="71">
-        <v>33513.6928251631</v>
+        <v>33513.694243009195</v>
       </c>
       <c r="J55" s="71">
-        <v>32964.2295825898</v>
+        <v>32964.2300184437</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="46" t="s">
@@ -10235,7 +10235,7 @@
         <v>111</v>
       </c>
       <c r="O55" s="71">
-        <v>-197765.141636314</v>
+        <v>-197765.571628944</v>
       </c>
       <c r="P55" s="21" t="s">
         <v>112</v>
@@ -10281,7 +10281,7 @@
         <v>111</v>
       </c>
       <c r="O56" s="74">
-        <v>-0.57047168062713</v>
+        <v>-0.570414830169929</v>
       </c>
       <c r="P56" s="21" t="s">
         <v>112</v>
@@ -10327,7 +10327,7 @@
         <v>0.1</v>
       </c>
       <c r="O57" s="67">
-        <v>-1.30754694712902</v>
+        <v>-1.30755350737824</v>
       </c>
       <c r="P57" s="75" t="s">
         <v>116</v>
@@ -10350,19 +10350,19 @@
         <v>139189</v>
       </c>
       <c r="F58" s="71">
-        <v>139326.181575687</v>
+        <v>139326.181507925</v>
       </c>
       <c r="G58" s="71">
-        <v>139724.129676631</v>
+        <v>139724.129618685</v>
       </c>
       <c r="H58" s="71">
-        <v>140100.91425287802</v>
+        <v>140100.91470415602</v>
       </c>
       <c r="I58" s="71">
-        <v>140449.69282516302</v>
+        <v>140449.694243009</v>
       </c>
       <c r="J58" s="71">
-        <v>139900.22958259002</v>
+        <v>139900.230018444</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="46" t="s">
@@ -10373,7 +10373,7 @@
         <v>112</v>
       </c>
       <c r="O58" s="67">
-        <v>-0.00350613816401534</v>
+        <v>-0.0035076398770738</v>
       </c>
       <c r="P58" s="20" t="s">
         <v>112</v>
@@ -10396,19 +10396,19 @@
         <v>135517</v>
       </c>
       <c r="F59" s="71">
-        <v>135654.181575687</v>
+        <v>135654.181507925</v>
       </c>
       <c r="G59" s="71">
-        <v>136052.129676631</v>
+        <v>136052.129618685</v>
       </c>
       <c r="H59" s="71">
-        <v>136428.91425287802</v>
+        <v>136428.91470415602</v>
       </c>
       <c r="I59" s="71">
-        <v>136777.69282516302</v>
+        <v>136777.694243009</v>
       </c>
       <c r="J59" s="71">
-        <v>136228.22958259002</v>
+        <v>136228.230018444</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="46" t="s">
@@ -10419,7 +10419,7 @@
         <v>-0.1</v>
       </c>
       <c r="O59" s="67">
-        <v>-0.00317577295157995</v>
+        <v>-0.00317737050098378</v>
       </c>
       <c r="P59" s="76" t="s">
         <v>121</v>
@@ -10442,19 +10442,19 @@
         <v>14708</v>
       </c>
       <c r="F60" s="71">
-        <v>14845.181575687</v>
+        <v>14845.181507925001</v>
       </c>
       <c r="G60" s="71">
-        <v>15243.129676631299</v>
+        <v>15243.129618685</v>
       </c>
       <c r="H60" s="71">
-        <v>15619.9142528777</v>
+        <v>15619.914704156</v>
       </c>
       <c r="I60" s="71">
-        <v>15968.6928251633</v>
+        <v>15968.694243008999</v>
       </c>
       <c r="J60" s="71">
-        <v>15419.2295825898</v>
+        <v>15419.2300184438</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="46" t="s">
@@ -10465,7 +10465,7 @@
         <v>-0.1</v>
       </c>
       <c r="O60" s="67">
-        <v>0.00622666413078783</v>
+        <v>0.00622725500006477</v>
       </c>
       <c r="P60" s="76" t="s">
         <v>121</v>
@@ -10488,19 +10488,19 @@
         <v>1554</v>
       </c>
       <c r="F61" s="71">
-        <v>1544.6138332616602</v>
+        <v>1544.61361486139</v>
       </c>
       <c r="G61" s="71">
-        <v>1502.80799138584</v>
+        <v>1502.80859297904</v>
       </c>
       <c r="H61" s="71">
-        <v>1460.9355316768501</v>
+        <v>1460.9363343467</v>
       </c>
       <c r="I61" s="71">
-        <v>1417.57015575582</v>
+        <v>1417.5718616198499</v>
       </c>
       <c r="J61" s="71">
-        <v>5925.92751208018</v>
+        <v>5925.9304038069795</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="46" t="s">
@@ -10511,7 +10511,7 @@
         <v>-0.15</v>
       </c>
       <c r="O61" s="67">
-        <v>0.0145162397523794</v>
+        <v>0.0145170097126542</v>
       </c>
       <c r="P61" s="76" t="s">
         <v>121</v>
@@ -10557,7 +10557,7 @@
         <v>-0.25</v>
       </c>
       <c r="O62" s="67">
-        <v>0.0235906283473029</v>
+        <v>0.0235916915302419</v>
       </c>
       <c r="P62" s="76" t="s">
         <v>121</v>
@@ -10580,19 +10580,19 @@
         <v>1398</v>
       </c>
       <c r="F63" s="71">
-        <v>1450.28978660049</v>
+        <v>1450.28956820022</v>
       </c>
       <c r="G63" s="71">
-        <v>1424.69974414077</v>
+        <v>1424.70034573397</v>
       </c>
       <c r="H63" s="71">
-        <v>1392.04744039983</v>
+        <v>1392.04824306968</v>
       </c>
       <c r="I63" s="71">
-        <v>1355.8784169719602</v>
+        <v>1355.88012283599</v>
       </c>
       <c r="J63" s="71">
-        <v>5622.91538811305</v>
+        <v>5622.9182798398606</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="46" t="s">
@@ -10603,7 +10603,7 @@
         <v>-0.35</v>
       </c>
       <c r="O63" s="67">
-        <v>0.0330707477919207</v>
+        <v>0.0330718339267793</v>
       </c>
       <c r="P63" s="76" t="s">
         <v>121</v>
@@ -10626,19 +10626,19 @@
         <v>370</v>
       </c>
       <c r="F64" s="71">
-        <v>405.14057407183003</v>
+        <v>405.14040078786496</v>
       </c>
       <c r="G64" s="71">
-        <v>384.836823442621</v>
+        <v>384.83730076104797</v>
       </c>
       <c r="H64" s="71">
-        <v>358.929706107058</v>
+        <v>358.930342964481</v>
       </c>
       <c r="I64" s="71">
-        <v>330.23233941305705</v>
+        <v>330.233692886291</v>
       </c>
       <c r="J64" s="71">
-        <v>1479.13944303457</v>
+        <v>1479.14173739968</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="46" t="s">
@@ -10702,7 +10702,7 @@
         <v>-0.25</v>
       </c>
       <c r="O65" s="67">
-        <v>0.0144965892479941</v>
+        <v>0.0144979740643562</v>
       </c>
       <c r="P65" s="76" t="s">
         <v>121</v>
@@ -11335,10 +11335,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3">
-        <v>0.462416215686992</v>
+        <v>0.462436348230745</v>
       </c>
       <c r="C2" s="3">
-        <v>0.881498171845871</v>
+        <v>0.881499456473086</v>
       </c>
       <c r="D2" s="3">
         <v>47</v>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="2" s="3" customFormat="1">
       <c r="A2" s="3">
-        <v>201912</v>
+        <v>202003</v>
       </c>
       <c r="B2" s="3">
         <v>90087</v>
@@ -11748,25 +11748,25 @@
     </row>
     <row r="3" s="3" customFormat="1">
       <c r="A3" s="3">
-        <v>202003</v>
+        <v>202006</v>
       </c>
       <c r="B3" s="3">
-        <v>90087</v>
+        <v>24556</v>
       </c>
       <c r="C3" s="3">
-        <v>3618</v>
+        <v>233</v>
       </c>
       <c r="D3" s="3">
-        <v>53445</v>
+        <v>10995</v>
       </c>
       <c r="E3" s="3">
-        <v>15502</v>
+        <v>2571</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>2663</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>6791</v>
+        <v>6978</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -11787,39 +11787,39 @@
         <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>4474</v>
+        <v>2556</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>3594</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1">
       <c r="A4" s="3">
-        <v>202006</v>
+        <v>202009</v>
       </c>
       <c r="B4" s="3">
-        <v>24556</v>
+        <v>100044</v>
       </c>
       <c r="C4" s="3">
-        <v>233</v>
+        <v>4445</v>
       </c>
       <c r="D4" s="3">
-        <v>10995</v>
+        <v>57616</v>
       </c>
       <c r="E4" s="3">
-        <v>2571</v>
+        <v>16254</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>21</v>
+        <v>2759</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>6978</v>
+        <v>10505</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -11840,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>2556</v>
+        <v>4923</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
@@ -11849,30 +11849,30 @@
         <v>0</v>
       </c>
       <c r="Q4" s="4">
-        <v>1202</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1">
       <c r="A5" s="3">
-        <v>202009</v>
+        <v>202012</v>
       </c>
       <c r="B5" s="3">
-        <v>100044</v>
+        <v>100125</v>
       </c>
       <c r="C5" s="3">
-        <v>4445</v>
+        <v>4470</v>
       </c>
       <c r="D5" s="3">
-        <v>57616</v>
+        <v>57801</v>
       </c>
       <c r="E5" s="3">
-        <v>16254</v>
+        <v>17045</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>2759</v>
+        <v>2641</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>10505</v>
+        <v>9525</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -11893,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>4923</v>
+        <v>5172</v>
       </c>
       <c r="O5" s="4">
         <v>0</v>
@@ -11902,30 +11902,30 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>3542</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
       <c r="A6" s="3">
-        <v>202012</v>
+        <v>202103</v>
       </c>
       <c r="B6" s="3">
-        <v>100125</v>
+        <v>99200</v>
       </c>
       <c r="C6" s="3">
-        <v>4470</v>
+        <v>3871</v>
       </c>
       <c r="D6" s="3">
-        <v>57801</v>
+        <v>58061</v>
       </c>
       <c r="E6" s="3">
-        <v>17045</v>
+        <v>17175</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>2641</v>
+        <v>2311</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>9525</v>
+        <v>9291</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -11946,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>5172</v>
+        <v>5092</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
@@ -11955,30 +11955,30 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4">
-        <v>3471</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1">
       <c r="A7" s="3">
-        <v>202103</v>
+        <v>202106</v>
       </c>
       <c r="B7" s="3">
-        <v>99200</v>
+        <v>99812.9999999999</v>
       </c>
       <c r="C7" s="3">
-        <v>3871</v>
+        <v>4255</v>
       </c>
       <c r="D7" s="3">
-        <v>58061</v>
+        <v>59590.9998</v>
       </c>
       <c r="E7" s="3">
-        <v>17175</v>
+        <v>17212</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>2311</v>
+        <v>2317</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>9291</v>
+        <v>7694</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>5092</v>
+        <v>5310</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
@@ -12008,30 +12008,30 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4">
-        <v>3399</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1">
       <c r="A8" s="3">
-        <v>202106</v>
+        <v>202109</v>
       </c>
       <c r="B8" s="3">
-        <v>99812.9999999999</v>
+        <v>98366</v>
       </c>
       <c r="C8" s="3">
-        <v>4255</v>
+        <v>4089</v>
       </c>
       <c r="D8" s="3">
-        <v>59590.9998</v>
+        <v>59409</v>
       </c>
       <c r="E8" s="3">
-        <v>17212</v>
+        <v>17364</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2317</v>
+        <v>2408</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>7694</v>
+        <v>5940</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>5310</v>
+        <v>5602</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
@@ -12061,61 +12061,14 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <v>3434</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1">
-      <c r="A9" s="3">
-        <v>202109</v>
-      </c>
-      <c r="B9" s="3">
-        <v>98366</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4089</v>
-      </c>
-      <c r="D9" s="3">
-        <v>59409</v>
-      </c>
-      <c r="E9" s="3">
-        <v>17364</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2408</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5940</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5602</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>3554</v>
-      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" s="3" customFormat="1">
       <c r="N10" s="4"/>
@@ -12177,58 +12130,58 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>202003</v>
+        <v>202006</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>-65531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>202006</v>
+        <v>202009</v>
       </c>
       <c r="B3" s="3">
-        <v>-65531</v>
+        <v>75488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>202009</v>
+        <v>202012</v>
       </c>
       <c r="B4" s="3">
-        <v>75488</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>202012</v>
+        <v>202103</v>
       </c>
       <c r="B5" s="3">
-        <v>81</v>
+        <v>-925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>202103</v>
+        <v>202106</v>
       </c>
       <c r="B6" s="3">
-        <v>-925</v>
+        <v>612.99999999989609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>202106</v>
+        <v>202109</v>
       </c>
       <c r="B7" s="3">
-        <v>612.99999999989609</v>
+        <v>-1446.9999999999002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>202109</v>
+        <v>201712</v>
       </c>
       <c r="B8" s="3">
-        <v>-1446.9999999999002</v>
+        <v>-41.3523899999987</v>
       </c>
     </row>
     <row r="9">
